--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H2">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I2">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J2">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3081963333333333</v>
+        <v>0.162652</v>
       </c>
       <c r="N2">
-        <v>0.924589</v>
+        <v>0.487956</v>
       </c>
       <c r="O2">
-        <v>0.09210955608663025</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="P2">
-        <v>0.09210955608663024</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="Q2">
-        <v>11.151630656664</v>
+        <v>3.403981489738666</v>
       </c>
       <c r="R2">
-        <v>100.364675909976</v>
+        <v>30.635833407648</v>
       </c>
       <c r="S2">
-        <v>0.007535491064856671</v>
+        <v>0.004702131649709825</v>
       </c>
       <c r="T2">
-        <v>0.00753549106485667</v>
+        <v>0.004702131649709826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H3">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I3">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J3">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.207039333333333</v>
       </c>
       <c r="N3">
-        <v>6.621117999999999</v>
+        <v>6.621118</v>
       </c>
       <c r="O3">
-        <v>0.65961009678592</v>
+        <v>0.6118195026950627</v>
       </c>
       <c r="P3">
-        <v>0.65961009678592</v>
+        <v>0.6118195026950626</v>
       </c>
       <c r="Q3">
-        <v>79.85846951476799</v>
+        <v>46.18892505343822</v>
       </c>
       <c r="R3">
-        <v>718.7262256329119</v>
+        <v>415.7003254809439</v>
       </c>
       <c r="S3">
-        <v>0.05396276132244885</v>
+        <v>0.06380363906635726</v>
       </c>
       <c r="T3">
-        <v>0.05396276132244885</v>
+        <v>0.06380363906635726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H4">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I4">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J4">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.83074</v>
+        <v>0.01110166666666667</v>
       </c>
       <c r="N4">
-        <v>2.49222</v>
+        <v>0.033305</v>
       </c>
       <c r="O4">
-        <v>0.2482803471274498</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="P4">
-        <v>0.2482803471274497</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="Q4">
-        <v>30.05910405072</v>
+        <v>0.2323357096044444</v>
       </c>
       <c r="R4">
-        <v>270.53193645648</v>
+        <v>2.09102138644</v>
       </c>
       <c r="S4">
-        <v>0.02031183752094941</v>
+        <v>0.0003209397867709092</v>
       </c>
       <c r="T4">
-        <v>0.02031183752094941</v>
+        <v>0.0003209397867709092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.23263799999999</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H5">
-        <v>186.697914</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I5">
-        <v>0.1407065035230363</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J5">
-        <v>0.1407065035230363</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3081963333333333</v>
+        <v>1.160026</v>
       </c>
       <c r="N5">
-        <v>0.924589</v>
+        <v>3.480078</v>
       </c>
       <c r="O5">
-        <v>0.09210955608663025</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="P5">
-        <v>0.09210955608663024</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="Q5">
-        <v>19.17987084526066</v>
+        <v>24.27702722140267</v>
       </c>
       <c r="R5">
-        <v>172.618837607346</v>
+        <v>218.493244992624</v>
       </c>
       <c r="S5">
-        <v>0.01296041357800875</v>
+        <v>0.03353536980231592</v>
       </c>
       <c r="T5">
-        <v>0.01296041357800874</v>
+        <v>0.03353536980231593</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.23263799999999</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H6">
-        <v>186.697914</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I6">
-        <v>0.1407065035230363</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J6">
-        <v>0.1407065035230363</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.207039333333333</v>
+        <v>0.06651833333333333</v>
       </c>
       <c r="N6">
-        <v>6.621117999999999</v>
+        <v>0.199555</v>
       </c>
       <c r="O6">
-        <v>0.65961009678592</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="P6">
-        <v>0.65961009678592</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="Q6">
-        <v>137.3498798830946</v>
+        <v>1.392095857382222</v>
       </c>
       <c r="R6">
-        <v>1236.148918947852</v>
+        <v>12.52886271644</v>
       </c>
       <c r="S6">
-        <v>0.09281143040723834</v>
+        <v>0.001922988714879711</v>
       </c>
       <c r="T6">
-        <v>0.09281143040723834</v>
+        <v>0.001922988714879711</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.23263799999999</v>
+        <v>62.232638</v>
       </c>
       <c r="H7">
         <v>186.697914</v>
       </c>
       <c r="I7">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J7">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.83074</v>
+        <v>0.162652</v>
       </c>
       <c r="N7">
-        <v>2.49222</v>
+        <v>0.487956</v>
       </c>
       <c r="O7">
-        <v>0.2482803471274498</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="P7">
-        <v>0.2482803471274497</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="Q7">
-        <v>51.69914169211999</v>
+        <v>10.122263035976</v>
       </c>
       <c r="R7">
-        <v>465.29227522908</v>
+        <v>91.100367323784</v>
       </c>
       <c r="S7">
-        <v>0.03493465953778917</v>
+        <v>0.01398251239956206</v>
       </c>
       <c r="T7">
-        <v>0.03493465953778917</v>
+        <v>0.01398251239956206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,61 +912,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>203.1252746666667</v>
+        <v>62.232638</v>
       </c>
       <c r="H8">
-        <v>609.375824</v>
+        <v>186.697914</v>
       </c>
       <c r="I8">
-        <v>0.4592613794630246</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J8">
-        <v>0.4592613794630246</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3081963333333333</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N8">
-        <v>0.924589</v>
+        <v>6.621118</v>
       </c>
       <c r="O8">
-        <v>0.09210955608663025</v>
+        <v>0.6118195026950627</v>
       </c>
       <c r="P8">
-        <v>0.09210955608663024</v>
+        <v>0.6118195026950626</v>
       </c>
       <c r="Q8">
-        <v>62.60246485959289</v>
+        <v>137.3498798830947</v>
       </c>
       <c r="R8">
-        <v>563.4221837363359</v>
+        <v>1236.148918947852</v>
       </c>
       <c r="S8">
-        <v>0.04230236179007265</v>
+        <v>0.1897299439579871</v>
       </c>
       <c r="T8">
-        <v>0.04230236179007264</v>
+        <v>0.189729943957987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>203.1252746666667</v>
+        <v>62.232638</v>
       </c>
       <c r="H9">
-        <v>609.375824</v>
+        <v>186.697914</v>
       </c>
       <c r="I9">
-        <v>0.4592613794630246</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J9">
-        <v>0.4592613794630246</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.207039333333333</v>
+        <v>0.01110166666666667</v>
       </c>
       <c r="N9">
-        <v>6.621117999999999</v>
+        <v>0.033305</v>
       </c>
       <c r="O9">
-        <v>0.65961009678592</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="P9">
-        <v>0.65961009678592</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="Q9">
-        <v>448.3054707834701</v>
+        <v>0.6908860028633335</v>
       </c>
       <c r="R9">
-        <v>4034.749237051231</v>
+        <v>6.21797402577</v>
       </c>
       <c r="S9">
-        <v>0.3029334429576408</v>
+        <v>0.0009543638677819605</v>
       </c>
       <c r="T9">
-        <v>0.3029334429576407</v>
+        <v>0.0009543638677819604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>203.1252746666667</v>
+        <v>62.232638</v>
       </c>
       <c r="H10">
-        <v>609.375824</v>
+        <v>186.697914</v>
       </c>
       <c r="I10">
-        <v>0.4592613794630246</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J10">
-        <v>0.4592613794630246</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.83074</v>
+        <v>1.160026</v>
       </c>
       <c r="N10">
-        <v>2.49222</v>
+        <v>3.480078</v>
       </c>
       <c r="O10">
-        <v>0.2482803471274498</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="P10">
-        <v>0.2482803471274497</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="Q10">
-        <v>168.7442906765867</v>
+        <v>72.191478128588</v>
       </c>
       <c r="R10">
-        <v>1518.69861608928</v>
+        <v>649.723303157292</v>
       </c>
       <c r="S10">
-        <v>0.1140255747153112</v>
+        <v>0.09972258520531178</v>
       </c>
       <c r="T10">
-        <v>0.1140255747153112</v>
+        <v>0.09972258520531178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.574566000000001</v>
+        <v>62.232638</v>
       </c>
       <c r="H11">
-        <v>16.723698</v>
+        <v>186.697914</v>
       </c>
       <c r="I11">
-        <v>0.01260396016827052</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J11">
-        <v>0.01260396016827052</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,33 +1116,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3081963333333333</v>
+        <v>0.06651833333333333</v>
       </c>
       <c r="N11">
-        <v>0.924589</v>
+        <v>0.199555</v>
       </c>
       <c r="O11">
-        <v>0.09210955608663025</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="P11">
-        <v>0.09210955608663024</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="Q11">
-        <v>1.718060801124667</v>
+        <v>4.139611358696667</v>
       </c>
       <c r="R11">
-        <v>15.462547210122</v>
+        <v>37.25650222826999</v>
       </c>
       <c r="S11">
-        <v>0.001160945176032967</v>
+        <v>0.005718303006612494</v>
       </c>
       <c r="T11">
-        <v>0.001160945176032967</v>
+        <v>0.005718303006612493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.574566000000001</v>
+        <v>51.101662</v>
       </c>
       <c r="H12">
-        <v>16.723698</v>
+        <v>153.304986</v>
       </c>
       <c r="I12">
-        <v>0.01260396016827052</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J12">
-        <v>0.01260396016827052</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.207039333333333</v>
+        <v>0.162652</v>
       </c>
       <c r="N12">
-        <v>6.621117999999999</v>
+        <v>0.487956</v>
       </c>
       <c r="O12">
-        <v>0.65961009678592</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="P12">
-        <v>0.65961009678592</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="Q12">
-        <v>12.30328642826267</v>
+        <v>8.311787527624</v>
       </c>
       <c r="R12">
-        <v>110.729577854364</v>
+        <v>74.80608774861601</v>
       </c>
       <c r="S12">
-        <v>0.008313699386478799</v>
+        <v>0.01148158981390487</v>
       </c>
       <c r="T12">
-        <v>0.008313699386478799</v>
+        <v>0.01148158981390487</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.574566000000001</v>
+        <v>51.101662</v>
       </c>
       <c r="H13">
-        <v>16.723698</v>
+        <v>153.304986</v>
       </c>
       <c r="I13">
-        <v>0.01260396016827052</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J13">
-        <v>0.01260396016827052</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.83074</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N13">
-        <v>2.49222</v>
+        <v>6.621118</v>
       </c>
       <c r="O13">
-        <v>0.2482803471274498</v>
+        <v>0.6118195026950627</v>
       </c>
       <c r="P13">
-        <v>0.2482803471274497</v>
+        <v>0.6118195026950626</v>
       </c>
       <c r="Q13">
-        <v>4.631014958840001</v>
+        <v>112.7833780327053</v>
       </c>
       <c r="R13">
-        <v>41.67913462956001</v>
+        <v>1015.050402294348</v>
       </c>
       <c r="S13">
-        <v>0.003129315605758755</v>
+        <v>0.1557947048206441</v>
       </c>
       <c r="T13">
-        <v>0.003129315605758755</v>
+        <v>0.1557947048206441</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>135.170856</v>
+        <v>51.101662</v>
       </c>
       <c r="H14">
-        <v>405.512568</v>
+        <v>153.304986</v>
       </c>
       <c r="I14">
-        <v>0.3056180669374137</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J14">
-        <v>0.3056180669374137</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,33 +1302,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3081963333333333</v>
+        <v>0.01110166666666667</v>
       </c>
       <c r="N14">
-        <v>0.924589</v>
+        <v>0.033305</v>
       </c>
       <c r="O14">
-        <v>0.09210955608663025</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="P14">
-        <v>0.09210955608663024</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="Q14">
-        <v>41.659162192728</v>
+        <v>0.5673136176366668</v>
       </c>
       <c r="R14">
-        <v>374.932459734552</v>
+        <v>5.105822558730001</v>
       </c>
       <c r="S14">
-        <v>0.02815034447765922</v>
+        <v>0.0007836656353279839</v>
       </c>
       <c r="T14">
-        <v>0.02815034447765922</v>
+        <v>0.0007836656353279839</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>135.170856</v>
+        <v>51.101662</v>
       </c>
       <c r="H15">
-        <v>405.512568</v>
+        <v>153.304986</v>
       </c>
       <c r="I15">
-        <v>0.3056180669374137</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J15">
-        <v>0.3056180669374137</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,710 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.207039333333333</v>
+        <v>1.160026</v>
       </c>
       <c r="N15">
-        <v>6.621117999999999</v>
+        <v>3.480078</v>
       </c>
       <c r="O15">
-        <v>0.65961009678592</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="P15">
-        <v>0.65961009678592</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="Q15">
-        <v>298.327395912336</v>
+        <v>59.27925656321201</v>
       </c>
       <c r="R15">
-        <v>2684.946563211024</v>
+        <v>533.513309068908</v>
       </c>
       <c r="S15">
-        <v>0.2015887627121132</v>
+        <v>0.08188612931574656</v>
       </c>
       <c r="T15">
-        <v>0.2015887627121132</v>
+        <v>0.08188612931574658</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>51.101662</v>
+      </c>
+      <c r="H16">
+        <v>153.304986</v>
+      </c>
+      <c r="I16">
+        <v>0.2546416126559695</v>
+      </c>
+      <c r="J16">
+        <v>0.2546416126559696</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.06651833333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.199555</v>
+      </c>
+      <c r="O16">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="P16">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="Q16">
+        <v>3.399197386803333</v>
+      </c>
+      <c r="R16">
+        <v>30.59277648123</v>
+      </c>
+      <c r="S16">
+        <v>0.004695523070346068</v>
+      </c>
+      <c r="T16">
+        <v>0.004695523070346068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>135.170856</v>
-      </c>
-      <c r="H16">
-        <v>405.512568</v>
-      </c>
-      <c r="I16">
-        <v>0.3056180669374137</v>
-      </c>
-      <c r="J16">
-        <v>0.3056180669374137</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.83074</v>
-      </c>
-      <c r="N16">
-        <v>2.49222</v>
-      </c>
-      <c r="O16">
-        <v>0.2482803471274498</v>
-      </c>
-      <c r="P16">
-        <v>0.2482803471274497</v>
-      </c>
-      <c r="Q16">
-        <v>112.29183691344</v>
-      </c>
-      <c r="R16">
-        <v>1010.62653222096</v>
-      </c>
-      <c r="S16">
-        <v>0.07587895974764124</v>
-      </c>
-      <c r="T16">
-        <v>0.07587895974764124</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.923547333333333</v>
+      </c>
+      <c r="H17">
+        <v>14.770642</v>
+      </c>
+      <c r="I17">
+        <v>0.02453423203628873</v>
+      </c>
+      <c r="J17">
+        <v>0.02453423203628873</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.162652</v>
+      </c>
+      <c r="N17">
+        <v>0.487956</v>
+      </c>
+      <c r="O17">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="P17">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="Q17">
+        <v>0.8008248208613333</v>
+      </c>
+      <c r="R17">
+        <v>7.207423387752001</v>
+      </c>
+      <c r="S17">
+        <v>0.001106229204652453</v>
+      </c>
+      <c r="T17">
+        <v>0.001106229204652453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.923547333333333</v>
+      </c>
+      <c r="H18">
+        <v>14.770642</v>
+      </c>
+      <c r="I18">
+        <v>0.02453423203628873</v>
+      </c>
+      <c r="J18">
+        <v>0.02453423203628873</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.621118</v>
+      </c>
+      <c r="O18">
+        <v>0.6118195026950627</v>
+      </c>
+      <c r="P18">
+        <v>0.6118195026950626</v>
+      </c>
+      <c r="Q18">
+        <v>10.86646262419511</v>
+      </c>
+      <c r="R18">
+        <v>97.798163617756</v>
+      </c>
+      <c r="S18">
+        <v>0.01501052164344745</v>
+      </c>
+      <c r="T18">
+        <v>0.01501052164344744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.923547333333333</v>
+      </c>
+      <c r="H19">
+        <v>14.770642</v>
+      </c>
+      <c r="I19">
+        <v>0.02453423203628873</v>
+      </c>
+      <c r="J19">
+        <v>0.02453423203628873</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.01110166666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.033305</v>
+      </c>
+      <c r="O19">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="P19">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="Q19">
+        <v>0.05465958131222223</v>
+      </c>
+      <c r="R19">
+        <v>0.49193623181</v>
+      </c>
+      <c r="S19">
+        <v>7.550468415379656E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.550468415379655E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.923547333333333</v>
+      </c>
+      <c r="H20">
+        <v>14.770642</v>
+      </c>
+      <c r="I20">
+        <v>0.02453423203628873</v>
+      </c>
+      <c r="J20">
+        <v>0.02453423203628873</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.160026</v>
+      </c>
+      <c r="N20">
+        <v>3.480078</v>
+      </c>
+      <c r="O20">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="P20">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="Q20">
+        <v>5.711442918897333</v>
+      </c>
+      <c r="R20">
+        <v>51.40298627007601</v>
+      </c>
+      <c r="S20">
+        <v>0.00788957184268356</v>
+      </c>
+      <c r="T20">
+        <v>0.00788957184268356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.923547333333333</v>
+      </c>
+      <c r="H21">
+        <v>14.770642</v>
+      </c>
+      <c r="I21">
+        <v>0.02453423203628873</v>
+      </c>
+      <c r="J21">
+        <v>0.02453423203628873</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.06651833333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.199555</v>
+      </c>
+      <c r="O21">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="P21">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="Q21">
+        <v>0.3275061627011111</v>
+      </c>
+      <c r="R21">
+        <v>2.94755546431</v>
+      </c>
+      <c r="S21">
+        <v>0.0004524046613514749</v>
+      </c>
+      <c r="T21">
+        <v>0.0004524046613514748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>61.49486933333333</v>
+      </c>
+      <c r="H22">
+        <v>184.484608</v>
+      </c>
+      <c r="I22">
+        <v>0.3064313778504528</v>
+      </c>
+      <c r="J22">
+        <v>0.3064313778504528</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.162652</v>
+      </c>
+      <c r="N22">
+        <v>0.487956</v>
+      </c>
+      <c r="O22">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="P22">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="Q22">
+        <v>10.00226348680533</v>
+      </c>
+      <c r="R22">
+        <v>90.020371381248</v>
+      </c>
+      <c r="S22">
+        <v>0.01381674954808732</v>
+      </c>
+      <c r="T22">
+        <v>0.01381674954808732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>61.49486933333333</v>
+      </c>
+      <c r="H23">
+        <v>184.484608</v>
+      </c>
+      <c r="I23">
+        <v>0.3064313778504528</v>
+      </c>
+      <c r="J23">
+        <v>0.3064313778504528</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N23">
+        <v>6.621118</v>
+      </c>
+      <c r="O23">
+        <v>0.6118195026950627</v>
+      </c>
+      <c r="P23">
+        <v>0.6118195026950626</v>
+      </c>
+      <c r="Q23">
+        <v>135.7215954168604</v>
+      </c>
+      <c r="R23">
+        <v>1221.494358751744</v>
+      </c>
+      <c r="S23">
+        <v>0.1874806932066269</v>
+      </c>
+      <c r="T23">
+        <v>0.1874806932066268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>61.49486933333333</v>
+      </c>
+      <c r="H24">
+        <v>184.484608</v>
+      </c>
+      <c r="I24">
+        <v>0.3064313778504528</v>
+      </c>
+      <c r="J24">
+        <v>0.3064313778504528</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.01110166666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.033305</v>
+      </c>
+      <c r="O24">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="P24">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="Q24">
+        <v>0.6826955410488889</v>
+      </c>
+      <c r="R24">
+        <v>6.14425986944</v>
+      </c>
+      <c r="S24">
+        <v>0.0009430498727324762</v>
+      </c>
+      <c r="T24">
+        <v>0.0009430498727324761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>61.49486933333333</v>
+      </c>
+      <c r="H25">
+        <v>184.484608</v>
+      </c>
+      <c r="I25">
+        <v>0.3064313778504528</v>
+      </c>
+      <c r="J25">
+        <v>0.3064313778504528</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.160026</v>
+      </c>
+      <c r="N25">
+        <v>3.480078</v>
+      </c>
+      <c r="O25">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="P25">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="Q25">
+        <v>71.33564729326933</v>
+      </c>
+      <c r="R25">
+        <v>642.0208256394239</v>
+      </c>
+      <c r="S25">
+        <v>0.09854037276682449</v>
+      </c>
+      <c r="T25">
+        <v>0.09854037276682449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>61.49486933333333</v>
+      </c>
+      <c r="H26">
+        <v>184.484608</v>
+      </c>
+      <c r="I26">
+        <v>0.3064313778504528</v>
+      </c>
+      <c r="J26">
+        <v>0.3064313778504528</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.06651833333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.199555</v>
+      </c>
+      <c r="O26">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="P26">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="Q26">
+        <v>4.090536216604444</v>
+      </c>
+      <c r="R26">
+        <v>36.81482594943999</v>
+      </c>
+      <c r="S26">
+        <v>0.005650512456181632</v>
+      </c>
+      <c r="T26">
+        <v>0.005650512456181631</v>
       </c>
     </row>
   </sheetData>
